--- a/Part 1/url.xlsx
+++ b/Part 1/url.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofwestminster-my.sharepoint.com/personal/w1985751_westminster_ac_uk/Documents/Business Data Analytics/Level 5/Data Engineering/w1985751/DataEng/Part 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{24EAC477-BAB5-4B7E-ACB7-4A08B54FCDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D002D64A-AB82-4D92-912A-42C7504927FA}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{24EAC477-BAB5-4B7E-ACB7-4A08B54FCDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D3148C6-4B87-4C50-BFF2-9C82E02AAF97}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="17880" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="url" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>https://images.pexels.com/photos/2499271/pexels-photo-2499271.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
   </si>
@@ -40,15 +53,9 @@
     <t>https://images.pexels.com/photos/1054666/pexels-photo-1054666.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
   </si>
   <si>
-    <t>https://images.pexels.com/photos/17081254/pexels-photo-17081254/free-photo-of-elephant-in-nature.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
-  </si>
-  <si>
     <t>https://images.pexels.com/photos/12321255/pexels-photo-12321255.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
   </si>
   <si>
-    <t>https://images.pexels.com/photos/17308888/pexels-photo-17308888/free-photo-of-a-group-of-elephants-standing-in-a-field.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
-  </si>
-  <si>
     <t>https://images.pexels.com/photos/247502/pexels-photo-247502.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
   </si>
   <si>
@@ -97,9 +104,6 @@
     <t>https://images.pexels.com/photos/45851/bird-blue-cristata-cyanocitta-45851.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
   </si>
   <si>
-    <t>https://images.pexels.com/photos/59816/swan-bird-nature-water-bird-59816.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
-  </si>
-  <si>
     <t>https://images.pexels.com/photos/1670413/pexels-photo-1670413.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
   </si>
   <si>
@@ -139,9 +143,6 @@
     <t>https://images.pexels.com/photos/67552/giraffe-tall-mammal-africa-67552.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
   </si>
   <si>
-    <t>https://images.pexels.com/photos/62289/yemen-chameleon-chamaeleo-calyptratus-chameleon-reptile-62289.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
-  </si>
-  <si>
     <t>https://images.pexels.com/photos/162140/duckling-birds-yellow-fluffy-162140.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
   </si>
   <si>
@@ -160,23 +161,38 @@
     <t>https://images.pexels.com/photos/162203/panthera-tigris-altaica-tiger-siberian-amurtiger-162203.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
   </si>
   <si>
-    <t>https://images.pexels.com/photos/39857/leopard-leopard-spots-animal-wild-39857.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
-  </si>
-  <si>
-    <t>https://images.pexels.com/photos/2295744/pexels-photo-2295744.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
-  </si>
-  <si>
     <t>https://images.pexels.com/photos/1076758/pexels-photo-1076758.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/144234/bull-landscape-nature-mammal-144234.jpeg?auto=compress&amp;cs=tinysrgb&amp;dpr=2&amp;h=650&amp;w=940</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/17308888/pexels-photo-17308888/free-photo-of-a-group-of-elephants-standing-in-a-field.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/17081254/pexels-photo-17081254/free-photo-of-elephant-in-nature.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/50577/hedgehog-animal-baby-cute-50577.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/39857/leopard-leopard-spots-animal-wild-39857.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/2295744/pexels-photo-2295744.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/460775/pexels-photo-460775.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +331,26 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -662,10 +698,18 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -723,6 +767,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,271 +1069,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4BCFC6-00F6-4779-91AC-E535F5C30232}">
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="135.5546875" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A34" r:id="rId1" xr:uid="{4C5A6E7F-0053-4B73-B746-4020CFEBB9FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
